--- a/arm/gear.xlsx
+++ b/arm/gear.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hibik\Documents\Robomech\RESCUE\ORCA\hard\arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77B9FF-053F-42C1-B97D-0E1CE4AB268E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9A9AA-B535-477B-AC47-4D9D0B25B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F244A947-A20A-434D-8B65-EC45C6F525E7}"/>
   </bookViews>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
-  <si>
-    <t>ギアの設計</t>
-    <rPh sb="3" eb="5">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>モジュール　</t>
     <phoneticPr fontId="1"/>
@@ -102,6 +95,20 @@
     <t>平歯車</t>
     <rPh sb="0" eb="3">
       <t>ヒラハグルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手首ロール</t>
+    <rPh sb="0" eb="2">
+      <t>テクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手首ピッチ</t>
+    <rPh sb="0" eb="2">
+      <t>テクビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,7 +202,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>658185</xdr:colOff>
+      <xdr:colOff>458160</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>219821</xdr:rowOff>
     </xdr:to>
@@ -530,137 +537,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F14875F-5054-4A50-89B7-D6A63DD09A54}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="B1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <f>D4*3/5</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f>D2*D4</f>
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>G2*G4</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f>L2*L4</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f>D5+2*D2</f>
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <f>G5+2*G2</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f>L5+2*L2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <f>D5-2.5*D2</f>
         <v>32.5</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>G5-2.5*G2</f>
         <v>18.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f>L5-2.5*L2</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <f>3.14*D2/2</f>
         <v>1.57</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <f>3.14*G2/2</f>
         <v>1.57</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <f>3.14*L2/2</f>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E13" s="1"/>
       <c r="H13" s="1"/>
     </row>
